--- a/fhir-terminology/Subsets_Conectathon_Template.xlsx
+++ b/fhir-terminology/Subsets_Conectathon_Template.xlsx
@@ -14,14 +14,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="HlFX7F4hDKStOjp9HxvAXqrhsYSCaTJ2GBxXC7Ng9kI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="M5O/4oX99uvg9H4bO7ky67rclCN0RbcY2HoSc7I94Gw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="471">
   <si>
     <t>Local Code System</t>
   </si>
@@ -59,6 +59,12 @@
     <t>Diabetes Mellitus insulino requiriente</t>
   </si>
   <si>
+    <t>E10.9</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus tipo 1 sin complicaciones</t>
+  </si>
+  <si>
     <t>Diabetes mellitus type 1 (disorder)</t>
   </si>
   <si>
@@ -68,6 +74,12 @@
     <t>Daiabetes Mellitus no insulino requeriente</t>
   </si>
   <si>
+    <t>E11.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diabetes mellitus tipo 2 sin complicaciones </t>
+  </si>
+  <si>
     <t>Diabetes mellitus type 2 (disorder)</t>
   </si>
   <si>
@@ -77,6 +89,12 @@
     <t xml:space="preserve">Hipertensión arterial esencial </t>
   </si>
   <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>Hipertensión esencial (primaria)</t>
+  </si>
+  <si>
     <t>Essential hypertension (disorder)</t>
   </si>
   <si>
@@ -86,6 +104,12 @@
     <t>Dislipemia</t>
   </si>
   <si>
+    <t>E78.8</t>
+  </si>
+  <si>
+    <t>Otros trastornos del metabolistmo de las lipoproteínas</t>
+  </si>
+  <si>
     <t>Dyslipidemia (disorder)</t>
   </si>
   <si>
@@ -95,6 +119,12 @@
     <t>Hiperuricemia</t>
   </si>
   <si>
+    <t>E79.0</t>
+  </si>
+  <si>
+    <t>Hiperuricemia sin signos de artritis inflamatoria y enfermedad tofácea</t>
+  </si>
+  <si>
     <t>Hyperuricemia (disorder)</t>
   </si>
   <si>
@@ -104,6 +134,12 @@
     <t>Infarto de Miocardio</t>
   </si>
   <si>
+    <t>I21.9</t>
+  </si>
+  <si>
+    <t>Infarto agudo de miocardio, no especificado</t>
+  </si>
+  <si>
     <t>Myocardial infarction (disorder)</t>
   </si>
   <si>
@@ -113,6 +149,12 @@
     <t>Enfermedad pulmonar obstructiva crónica</t>
   </si>
   <si>
+    <t>J44.9</t>
+  </si>
+  <si>
+    <t>Enfermedad pulmonar obstructiva crónica, no especificada</t>
+  </si>
+  <si>
     <t>Chronic obstructive pulmonary disease (disorder)</t>
   </si>
   <si>
@@ -122,6 +164,12 @@
     <t>Lupus eritematoso Sistémico</t>
   </si>
   <si>
+    <t>M32.9</t>
+  </si>
+  <si>
+    <t>Lupus eritematoso sistémico no especificado</t>
+  </si>
+  <si>
     <t>Systemic lupus erythematosus (disorder)</t>
   </si>
   <si>
@@ -131,6 +179,12 @@
     <t>Accidente cerebro vascular</t>
   </si>
   <si>
+    <t>I64</t>
+  </si>
+  <si>
+    <t>Accidente cerebrovascular</t>
+  </si>
+  <si>
     <t>Cerebrovascular accident (disorder)</t>
   </si>
   <si>
@@ -140,6 +194,12 @@
     <t>Migraña</t>
   </si>
   <si>
+    <t>G43.9</t>
+  </si>
+  <si>
+    <t>Migraña, no especificada</t>
+  </si>
+  <si>
     <t>Migraine (disorder)</t>
   </si>
   <si>
@@ -149,6 +209,12 @@
     <t>Epilepsia</t>
   </si>
   <si>
+    <t>G40.9</t>
+  </si>
+  <si>
+    <t>Epilepsia, tipo no especificado</t>
+  </si>
+  <si>
     <t>Epilepsy (disorder)</t>
   </si>
   <si>
@@ -158,6 +224,12 @@
     <t>Hipotiroidismo</t>
   </si>
   <si>
+    <t>E03.9</t>
+  </si>
+  <si>
+    <t>Hipotiroidismo, no especificado</t>
+  </si>
+  <si>
     <t>Hypothyroidism (disorder)</t>
   </si>
   <si>
@@ -167,6 +239,12 @@
     <t>Dermatitis atópica</t>
   </si>
   <si>
+    <t>L20.9</t>
+  </si>
+  <si>
+    <t>Dermatitis atópica, no especificada</t>
+  </si>
+  <si>
     <t>Atopic dermatitis (disorder)</t>
   </si>
   <si>
@@ -176,6 +254,12 @@
     <t>Tabaquismo</t>
   </si>
   <si>
+    <t>Z72.0</t>
+  </si>
+  <si>
+    <t>Consumo de tabaco</t>
+  </si>
+  <si>
     <t>Smoker (finding)</t>
   </si>
   <si>
@@ -185,6 +269,12 @@
     <t>Sedentarismo</t>
   </si>
   <si>
+    <t>Z72.3</t>
+  </si>
+  <si>
+    <t>falta de ejercicio físico</t>
+  </si>
+  <si>
     <t>Sedentary lifestyle (finding)</t>
   </si>
   <si>
@@ -194,6 +284,12 @@
     <t>Enfermedad renal crónica</t>
   </si>
   <si>
+    <t>N18.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enfermedad renal crónica, no especificada </t>
+  </si>
+  <si>
     <t>Chronic kidney disease (disorder)</t>
   </si>
   <si>
@@ -203,7 +299,13 @@
     <t>Tuberculosis</t>
   </si>
   <si>
-    <t>Tuberculosis (disorder)</t>
+    <t>A15.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis del pulmón </t>
+  </si>
+  <si>
+    <t>tuberculosis pulmonar (trastorno)</t>
   </si>
   <si>
     <t>H18</t>
@@ -212,6 +314,12 @@
     <t>Hipoacusia</t>
   </si>
   <si>
+    <t>H91.9</t>
+  </si>
+  <si>
+    <t>Hipoacusia, no especificada</t>
+  </si>
+  <si>
     <t>Hearing loss (disorder)</t>
   </si>
   <si>
@@ -221,6 +329,12 @@
     <t>Apnea obstructiva del sueño</t>
   </si>
   <si>
+    <t>G47.3</t>
+  </si>
+  <si>
+    <t>Apnea del sueño</t>
+  </si>
+  <si>
     <t>Obstructive sleep apnea syndrome (disorder)</t>
   </si>
   <si>
@@ -230,6 +344,12 @@
     <t>Trombosis venosa profunda</t>
   </si>
   <si>
+    <t>I80.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flevitis y tromboflevitis de otros vasos profundos de extremidades inferiores y los no especificados </t>
+  </si>
+  <si>
     <t>Deep venous thrombosis (disorder)</t>
   </si>
   <si>
@@ -248,6 +368,12 @@
     <t>Neumonia bacteriana</t>
   </si>
   <si>
+    <t>J15.9</t>
+  </si>
+  <si>
+    <t>Neumonia bacteriana no especificada</t>
+  </si>
+  <si>
     <t>Bacterial pneumonia (disorder)</t>
   </si>
   <si>
@@ -257,6 +383,12 @@
     <t>Asma</t>
   </si>
   <si>
+    <t>J45.9</t>
+  </si>
+  <si>
+    <t>Asma no especificada</t>
+  </si>
+  <si>
     <t>Asthma (disorder)</t>
   </si>
   <si>
@@ -266,6 +398,12 @@
     <t>Artritis reumatoridea</t>
   </si>
   <si>
+    <t>M06.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artritis reumatoride sin factor reumatoide, localización múltiple </t>
+  </si>
+  <si>
     <t>Rheumatoid arthritis (disorder)</t>
   </si>
   <si>
@@ -275,6 +413,12 @@
     <t>Anemia ferropénica</t>
   </si>
   <si>
+    <t>D50.9</t>
+  </si>
+  <si>
+    <t>Anemia ferropénica, no especificada</t>
+  </si>
+  <si>
     <t>Iron deficiency anemia (disorder)</t>
   </si>
   <si>
@@ -284,6 +428,12 @@
     <t xml:space="preserve">Convulsión </t>
   </si>
   <si>
+    <t>R56.9</t>
+  </si>
+  <si>
+    <t>Convulsiones no especificadas</t>
+  </si>
+  <si>
     <t>Seizure (finding)</t>
   </si>
   <si>
@@ -293,6 +443,12 @@
     <t xml:space="preserve">Trastorno depresivo </t>
   </si>
   <si>
+    <t>F32.9</t>
+  </si>
+  <si>
+    <t>Trastorno depresivo mayor, único episodio, no especificado</t>
+  </si>
+  <si>
     <t>Depressive disorder (disorder)</t>
   </si>
   <si>
@@ -302,6 +458,12 @@
     <t>Cáncer de mama</t>
   </si>
   <si>
+    <t>C50.9</t>
+  </si>
+  <si>
+    <t>Neoplasia maligna de localización no especificada de mama</t>
+  </si>
+  <si>
     <t>Malignant neoplasm of breast (disorder)</t>
   </si>
   <si>
@@ -311,6 +473,12 @@
     <t>Enfermedad de Párkinson</t>
   </si>
   <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>Enfermedad de Parkinson</t>
+  </si>
+  <si>
     <t>Parkinson's disease (disorder)</t>
   </si>
   <si>
@@ -320,6 +488,12 @@
     <t xml:space="preserve">Desnutrición </t>
   </si>
   <si>
+    <t>E46</t>
+  </si>
+  <si>
+    <t>Malnutrición calórica-proteica no especificada</t>
+  </si>
+  <si>
     <t>Undernutrition (disorder)</t>
   </si>
   <si>
@@ -329,6 +503,12 @@
     <t>Enfermedad de Crohn</t>
   </si>
   <si>
+    <t>K50.9</t>
+  </si>
+  <si>
+    <t>Enfermedad de Crohn no especificada</t>
+  </si>
+  <si>
     <t>Crohn's disease (disorder)</t>
   </si>
   <si>
@@ -338,6 +518,12 @@
     <t>Esquizofrenia paranoide</t>
   </si>
   <si>
+    <t>F20.0</t>
+  </si>
+  <si>
+    <t>Ezquisofrenia paranoide</t>
+  </si>
+  <si>
     <t>Paranoid schizophrenia (disorder)</t>
   </si>
   <si>
@@ -347,6 +533,9 @@
     <t>Trastorno de ansiedad generalizada</t>
   </si>
   <si>
+    <t>F41.1</t>
+  </si>
+  <si>
     <t>Generalized anxiety disorder (disorder)</t>
   </si>
   <si>
@@ -356,6 +545,12 @@
     <t>Gota</t>
   </si>
   <si>
+    <t>M10.9</t>
+  </si>
+  <si>
+    <t>Gota no especificada</t>
+  </si>
+  <si>
     <t>Inflammatory disorder due to increased blood urate level (disorder)</t>
   </si>
   <si>
@@ -365,6 +560,12 @@
     <t>Hipotiroidismo congénito</t>
   </si>
   <si>
+    <t>E03.1</t>
+  </si>
+  <si>
+    <t>Hipotiroidismo congénito sin bocio</t>
+  </si>
+  <si>
     <t>Congenital hypothyroidism (disorder)</t>
   </si>
   <si>
@@ -374,6 +575,12 @@
     <t>Deshidratación aguda</t>
   </si>
   <si>
+    <t>E86.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deshidratación </t>
+  </si>
+  <si>
     <t>Dehydration (disorder)</t>
   </si>
   <si>
@@ -383,6 +590,12 @@
     <t>Neumotórax espontáneo</t>
   </si>
   <si>
+    <t>J93.1</t>
+  </si>
+  <si>
+    <t>Otros tipos de neumotórax espontáneo</t>
+  </si>
+  <si>
     <t>Spontaneous pneumothorax (disorder)</t>
   </si>
   <si>
@@ -392,6 +605,12 @@
     <t>Ulcera péptica</t>
   </si>
   <si>
+    <t>K27.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Úlcera péptica, localización no especificada, no especificada como aguda ni crónica, sin hemorragia ni perforación  </t>
+  </si>
+  <si>
     <t>Peptic ulcer (disorder)</t>
   </si>
   <si>
@@ -401,6 +620,12 @@
     <t>Endocarditis infecciosa</t>
   </si>
   <si>
+    <t>I33.0</t>
+  </si>
+  <si>
+    <t>Endocarditis infecciosa aguda y subaguda</t>
+  </si>
+  <si>
     <t>Infective endocarditis (disorder)</t>
   </si>
   <si>
@@ -410,6 +635,12 @@
     <t>Leucemia linfoblástica aguda</t>
   </si>
   <si>
+    <t>C91.0</t>
+  </si>
+  <si>
+    <t>Luecemia linfoblástica aguda (LLA)</t>
+  </si>
+  <si>
     <t>Common acute lymphoblastic leukemia (disorder)</t>
   </si>
   <si>
@@ -428,6 +659,12 @@
     <t>Vacuna contra SARS - CoV-2</t>
   </si>
   <si>
+    <t>XM68M6</t>
+  </si>
+  <si>
+    <t>Vacunas contra la COVID-19</t>
+  </si>
+  <si>
     <t>Vaccine product against severe acute respiratory syndrome coronavirus 2 (medicinal product)</t>
   </si>
   <si>
@@ -437,6 +674,12 @@
     <t>Vacuna antituberculosa (BCG)</t>
   </si>
   <si>
+    <t>XM4639</t>
+  </si>
+  <si>
+    <t>Vacunas contra tuberculosis</t>
+  </si>
+  <si>
     <t>Vaccine product containing live attenuated Mycobacterium bovis antigen (medicinal product)</t>
   </si>
   <si>
@@ -446,6 +689,12 @@
     <t>Vacuna contra tétanos, difteria y tos ferina</t>
   </si>
   <si>
+    <t>XM31Q8</t>
+  </si>
+  <si>
+    <t>Vacuna contra Tétanos, difteria, tos ferina acelular.</t>
+  </si>
+  <si>
     <t>Vaccine product containing only Bordetella pertussis and Clostridium tetani and Corynebacterium diphtheriae antigens (medicinal product)</t>
   </si>
   <si>
@@ -455,6 +704,12 @@
     <t>Vacuna contra fiebre amarilla</t>
   </si>
   <si>
+    <t>XM0N24</t>
+  </si>
+  <si>
+    <t>Vacunas contra la fiebre amarilla</t>
+  </si>
+  <si>
     <t>Vaccine product containing only Yellow fever virus antigen (medicinal product)</t>
   </si>
   <si>
@@ -464,6 +719,12 @@
     <t>Vacuna contra Hepatits B</t>
   </si>
   <si>
+    <t>XM9V38</t>
+  </si>
+  <si>
+    <t>Vacuna contra la Hepatitis B, antígeno purificado</t>
+  </si>
+  <si>
     <t>Vaccine product containing Hepatitis B virus antigen (medicinal product)</t>
   </si>
   <si>
@@ -473,6 +734,12 @@
     <t>Vacuna contra sarampión, paperas y rubéola</t>
   </si>
   <si>
+    <t>XM8TF3</t>
+  </si>
+  <si>
+    <t>Vacuna contra sarampión, combinaciones con parotiditis y rubéola, virus vivos atenuados</t>
+  </si>
+  <si>
     <t>Vaccine product containing only Measles morbillivirus and Mumps orthorubulavirus and Rubella virus antigens (medicinal product)</t>
   </si>
   <si>
@@ -482,6 +749,12 @@
     <t>Vacuna contra el virus del papiloma humano</t>
   </si>
   <si>
+    <t>XM9QP0</t>
+  </si>
+  <si>
+    <t>Vacunas contra papilomavirus</t>
+  </si>
+  <si>
     <t>Vaccine product containing Human papillomavirus antigen (medicinal product)</t>
   </si>
   <si>
@@ -491,6 +764,12 @@
     <t>Vacuna antipoliomelítica oral (VOP)</t>
   </si>
   <si>
+    <t>XM1Y59</t>
+  </si>
+  <si>
+    <t>Vacuna Sabin oral</t>
+  </si>
+  <si>
     <t>Vaccine product containing only live attenuated Human poliovirus serotypes 1 and 3 antigens in oral dose form (medicinal product form)</t>
   </si>
   <si>
@@ -500,6 +779,12 @@
     <t xml:space="preserve">Vacuna contra influenza </t>
   </si>
   <si>
+    <t>XM1LR5</t>
+  </si>
+  <si>
+    <t>Vacuna contra la influenza</t>
+  </si>
+  <si>
     <t>Vaccine product containing Influenza virus antigen (medicinal product)</t>
   </si>
   <si>
@@ -509,6 +794,12 @@
     <t>Vacuna antirrábica</t>
   </si>
   <si>
+    <t>XM6T09</t>
+  </si>
+  <si>
+    <t>Vacunas contra la rabia</t>
+  </si>
+  <si>
     <t>Vaccine product containing Rabies lyssavirus antigen (medicinal product)</t>
   </si>
   <si>
@@ -518,6 +809,12 @@
     <t xml:space="preserve">Vacuna antineumocóccica </t>
   </si>
   <si>
+    <t>XM9EM7</t>
+  </si>
+  <si>
+    <t>Vacunas antineumocócicas</t>
+  </si>
+  <si>
     <t>Vaccine product containing Streptococcus pneumoniae antigen (medicinal product)</t>
   </si>
   <si>
@@ -527,6 +824,12 @@
     <t>Vacuna antipoliomelítica inactivada (VIP)</t>
   </si>
   <si>
+    <t>XM0N50</t>
+  </si>
+  <si>
+    <t>Vacuna para la poliomielitis</t>
+  </si>
+  <si>
     <t>Vaccine product containing only inactivated whole Human poliovirus antigen (medicinal product)</t>
   </si>
   <si>
@@ -536,6 +839,12 @@
     <t>Vacuna antimeningocócica</t>
   </si>
   <si>
+    <t>XM2WV4</t>
+  </si>
+  <si>
+    <t>Vacunas meningocócicas</t>
+  </si>
+  <si>
     <t>Vaccine product containing Neisseria meningitidis antigen (medicinal product)</t>
   </si>
   <si>
@@ -545,6 +854,12 @@
     <t>Vacuna contra hepatitis A</t>
   </si>
   <si>
+    <t>XM2A12</t>
+  </si>
+  <si>
+    <t>Vacuna contra la hepatitis A, virus enteros inactivados</t>
+  </si>
+  <si>
     <t>Vaccine product containing Hepatitis A virus antigen (medicinal product)</t>
   </si>
   <si>
@@ -554,6 +869,12 @@
     <t>Vacuna contra la fiebre tifoidea</t>
   </si>
   <si>
+    <t>XM8BU8</t>
+  </si>
+  <si>
+    <t>Vacuna para la tifoidea</t>
+  </si>
+  <si>
     <t>Typhus vaccine (medicinal product)</t>
   </si>
   <si>
@@ -563,6 +884,12 @@
     <t xml:space="preserve">Vacuna contra la varicela </t>
   </si>
   <si>
+    <t>XM8DG3</t>
+  </si>
+  <si>
+    <t>Vacunas contra la varicela zóster</t>
+  </si>
+  <si>
     <t>Vaccine product containing only Human alphaherpesvirus 3 antigen (medicinal product)</t>
   </si>
   <si>
@@ -852,12 +1179,6 @@
   </si>
   <si>
     <t>Product containing morphine (medicinal product)</t>
-  </si>
-  <si>
-    <t>M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salbutamol </t>
   </si>
   <si>
     <t>M13</t>
@@ -1266,6 +1587,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1280,20 +1615,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1412,12 +1733,12 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1462,7 +1783,7 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1725,7 +2046,7 @@
     <col customWidth="1" min="4" max="4" width="17.71"/>
     <col customWidth="1" min="5" max="5" width="10.71"/>
     <col customWidth="1" min="6" max="6" width="13.57"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
+    <col customWidth="1" min="7" max="7" width="61.57"/>
     <col customWidth="1" min="8" max="8" width="13.86"/>
     <col customWidth="1" min="9" max="9" width="43.14"/>
     <col customWidth="1" min="10" max="26" width="10.71"/>
@@ -1776,355 +2097,435 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="9">
         <v>4.6635009E7</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>12</v>
+      <c r="I4" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="13">
         <v>4.4054006E7</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="13">
         <v>5.9621E7</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="13">
         <v>3.70992007E8</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="H8" s="13">
         <v>3.5885006E7</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="13">
         <v>2.2298006E7</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="13">
         <v>1.3645005E7</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H11" s="13">
         <v>5.5464009E7</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="H12" s="13">
         <v>2.30690007E8</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="H13" s="13">
         <v>3.7796009E7</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="H14" s="13">
         <v>8.4757009E7</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="H15" s="13">
         <v>4.0930008E7</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="H16" s="13">
         <v>2.4079001E7</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="H17" s="13">
         <v>7.7176002E7</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="H18" s="13">
         <v>4.15510005E8</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="H19" s="13">
         <v>7.09044004E8</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="H20" s="13">
-        <v>5.6717001E7</v>
+        <v>1.54283005E8</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="H21" s="13">
         <v>1.5188001E7</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>103</v>
+      </c>
       <c r="H22" s="13">
         <v>7.8275009E7</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="15" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="H23" s="17">
         <v>1.28053003E8</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -3132,7 +3533,7 @@
     <col customWidth="1" min="4" max="4" width="16.57"/>
     <col customWidth="1" min="5" max="5" width="10.71"/>
     <col customWidth="1" min="6" max="6" width="11.86"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
+    <col customWidth="1" min="7" max="7" width="36.29"/>
     <col customWidth="1" min="8" max="8" width="13.86"/>
     <col customWidth="1" min="9" max="9" width="58.57"/>
     <col customWidth="1" min="10" max="26" width="10.71"/>
@@ -3148,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>4</v>
@@ -3171,362 +3572,442 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" s="9">
         <v>5.9621E7</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>18</v>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="23" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="H5" s="13">
         <v>5.3084003E7</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="H6" s="13">
         <v>1.95967001E8</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+        <v>124</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="H7" s="13">
         <v>6.9896004E7</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="H8" s="13">
         <v>8.7522002E7</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="H9" s="13">
         <v>9.1175E7</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="H10" s="13">
         <v>3.5489007E7</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="H11" s="13">
         <v>2.54837009E8</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="H12" s="13">
         <v>4.9049E7</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>156</v>
+      </c>
       <c r="H13" s="13">
         <v>6.5404009E7</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>161</v>
+      </c>
       <c r="H14" s="13">
         <v>3.4000006E7</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="H15" s="13">
         <v>6.4905009E7</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+        <v>169</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="H16" s="13">
         <v>2.1897009E7</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="H17" s="13">
         <v>9.0560007E7</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="H18" s="13">
         <v>1.90268003E8</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="H19" s="13">
         <v>3.4095006E7</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="23" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="H20" s="13">
         <v>8.0423007E7</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="23" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+        <v>193</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="H21" s="13">
         <v>1.3200003E7</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>123</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="23" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+        <v>198</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="H22" s="13">
         <v>2.33850007E8</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="15" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="F23" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="H23" s="17">
         <v>2.77573001E8</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -4531,7 +5012,7 @@
     <col customWidth="1" min="4" max="4" width="17.71"/>
     <col customWidth="1" min="5" max="5" width="10.71"/>
     <col customWidth="1" min="6" max="6" width="11.86"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
+    <col customWidth="1" min="7" max="7" width="76.71"/>
     <col customWidth="1" min="8" max="8" width="16.0"/>
     <col customWidth="1" min="9" max="9" width="119.14"/>
     <col customWidth="1" min="10" max="26" width="10.71"/>
@@ -4547,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>4</v>
@@ -4556,10 +5037,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>8</v>
@@ -4570,320 +5051,384 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>213</v>
+      </c>
       <c r="H4" s="9">
         <v>2.8531000087107E13</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>135</v>
+      <c r="I4" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="23" t="s">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="H5" s="13">
         <v>8.36402002E8</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+        <v>221</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>223</v>
+      </c>
       <c r="H6" s="13">
         <v>8.71875004E8</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+        <v>226</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="H7" s="13">
         <v>8.71717007E8</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+        <v>231</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>233</v>
+      </c>
       <c r="H8" s="13">
         <v>8.36374004E8</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+        <v>236</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>238</v>
+      </c>
       <c r="H9" s="13">
         <v>8.71831003E8</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>243</v>
+      </c>
       <c r="H10" s="13">
         <v>8.36379009E8</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+        <v>246</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="H11" s="13">
         <v>1.051000221104E12</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+        <v>251</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>253</v>
+      </c>
       <c r="H12" s="13">
         <v>8.36377006E8</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+        <v>256</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="H13" s="13">
         <v>8.36393002E8</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>162</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+        <v>261</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="H14" s="13">
         <v>8.36398006E8</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+        <v>266</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>268</v>
+      </c>
       <c r="H15" s="13">
         <v>8.71740006E8</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>273</v>
+      </c>
       <c r="H16" s="13">
         <v>8.36401009E8</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>171</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>172</v>
+        <v>275</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+        <v>276</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>278</v>
+      </c>
       <c r="H17" s="13">
         <v>8.36375003E8</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>174</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+        <v>281</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="H18" s="13">
         <v>3.7146E7</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>178</v>
+        <v>285</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+        <v>286</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="H19" s="13">
         <v>8.71919004E8</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="24"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -5913,7 +6458,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>4</v>
@@ -5922,10 +6467,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H3" s="30" t="s">
         <v>8</v>
@@ -5936,442 +6481,442 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="31" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H4" s="9">
         <v>4.14285001E8</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>185</v>
+      <c r="I4" s="11" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="23" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+        <v>296</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H5" s="13">
         <v>2.94505008E8</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+        <v>299</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H6" s="13">
         <v>2.93581006E8</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+        <v>302</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H7" s="13">
         <v>2.93619005E8</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+        <v>305</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H8" s="13">
         <v>1.003755004E9</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>197</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+        <v>308</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H9" s="13">
         <v>1.51201000119107E14</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+        <v>311</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H10" s="13">
         <v>2.93586001E8</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+        <v>314</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H11" s="13">
         <v>2.94532003E8</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+        <v>317</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H12" s="13">
         <v>9.1939003E7</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>209</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+        <v>320</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H13" s="13">
         <v>8.30259009E8</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>212</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H14" s="13">
         <v>2.94220003E8</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>215</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="23" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+        <v>326</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H15" s="13">
         <v>2.94469003E8</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+        <v>329</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H16" s="13">
         <v>2.93637006E8</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>221</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+        <v>332</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H17" s="13">
         <v>2.93722E8</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+        <v>335</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H18" s="13">
         <v>2.94677009E8</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>228</v>
+        <v>337</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+        <v>338</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H19" s="13">
         <v>7.82555009E8</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>230</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="23" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+        <v>341</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H20" s="13">
         <v>2.13020009E8</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>233</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="23" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+        <v>344</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H21" s="13">
         <v>2.93962009E8</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>236</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="23" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+        <v>347</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H22" s="13">
         <v>1.269425007E9</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="15" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="33" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H23" s="17">
         <v>2.93708E8</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -7390,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>4</v>
@@ -7399,10 +7944,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>8</v>
@@ -7413,442 +7958,430 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>245</v>
+        <v>354</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="31" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H4" s="9">
         <v>1.09081006E8</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>246</v>
+      <c r="I4" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="23" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+        <v>357</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H5" s="13">
         <v>1.5222008E7</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>249</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+        <v>360</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H6" s="13">
         <v>7.68532006E8</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>252</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>253</v>
+        <v>362</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+        <v>363</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H7" s="13">
         <v>1.08600003E8</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>255</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="23" t="s">
-        <v>256</v>
+        <v>365</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+        <v>366</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H8" s="13">
         <v>1.26212009E8</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>258</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="23" t="s">
-        <v>259</v>
+        <v>368</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+        <v>369</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H9" s="13">
         <v>9.1143003E7</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>261</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="23" t="s">
-        <v>262</v>
+        <v>371</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+        <v>372</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H10" s="13">
         <v>2.5673006E7</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>264</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="23" t="s">
-        <v>265</v>
+        <v>374</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+        <v>375</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H11" s="13">
         <v>4.8603004E7</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="23" t="s">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+        <v>378</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H12" s="13">
         <v>1.0312003E7</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>270</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="23" t="s">
-        <v>271</v>
+        <v>380</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+        <v>381</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H13" s="13">
         <v>4.15159003E8</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="23" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+        <v>384</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H14" s="13">
         <v>7.3572009E7</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>276</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="13">
-        <v>9.1143003E7</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>261</v>
-      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="23" t="s">
-        <v>279</v>
+        <v>386</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+        <v>387</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H16" s="13">
         <v>1.08652002E8</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>281</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="23" t="s">
-        <v>282</v>
+        <v>389</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+        <v>390</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H17" s="13">
         <v>8.7652004E7</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>284</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="23" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+        <v>393</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H18" s="13">
         <v>4.0820003E7</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>287</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="23" t="s">
-        <v>288</v>
+        <v>395</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+        <v>396</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H19" s="13">
         <v>4.8174005E7</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>290</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="23" t="s">
-        <v>291</v>
+        <v>398</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H20" s="13">
         <v>2.5246002E7</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>293</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="23" t="s">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+        <v>402</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H21" s="13">
         <v>9.6309E7</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>296</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="23" t="s">
-        <v>297</v>
+        <v>404</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+        <v>405</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H22" s="13">
         <v>3.23368009E8</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>299</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="15" t="s">
-        <v>300</v>
+        <v>407</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>301</v>
+        <v>408</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="33" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H23" s="17">
         <v>7947003.0</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>302</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -8867,7 +9400,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>303</v>
+        <v>410</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>4</v>
@@ -8876,10 +9409,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>8</v>
@@ -8890,442 +9423,442 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>304</v>
+        <v>411</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>305</v>
+        <v>412</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
       <c r="F4" s="31" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H4" s="9">
         <v>1.68731009E8</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>306</v>
+      <c r="I4" s="11" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="B5" s="7" t="s">
-        <v>307</v>
+        <v>414</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+        <v>415</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H5" s="13">
         <v>2.41462009E8</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>309</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="B6" s="7" t="s">
-        <v>310</v>
+        <v>417</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+        <v>418</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H6" s="13">
         <v>7.3761001E7</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>312</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="7" t="s">
-        <v>313</v>
+        <v>420</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+        <v>421</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H7" s="13">
         <v>1.13091E8</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>315</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="B8" s="7" t="s">
-        <v>316</v>
+        <v>423</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+        <v>424</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H8" s="13">
         <v>3.02497006E8</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>318</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="B9" s="7" t="s">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+        <v>427</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H9" s="13">
         <v>2.68400002E8</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>321</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="7" t="s">
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+        <v>430</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H10" s="13">
         <v>1.27783003E8</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>324</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="7" t="s">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+        <v>433</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H11" s="13">
         <v>1.3714004E7</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>327</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="7" t="s">
-        <v>328</v>
+        <v>435</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+        <v>436</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H12" s="13">
         <v>3.9609006E7</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>330</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="B13" s="7" t="s">
-        <v>331</v>
+        <v>438</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+        <v>439</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H13" s="13">
         <v>4.1976001E7</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>333</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="7" t="s">
-        <v>334</v>
+        <v>441</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+        <v>442</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H14" s="13">
         <v>1.287742003E9</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>336</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="7" t="s">
-        <v>337</v>
+        <v>444</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+        <v>445</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H15" s="13">
         <v>5.2052004E7</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>339</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>340</v>
+        <v>447</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+        <v>448</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H16" s="13">
         <v>7.7343006E7</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>342</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="7" t="s">
-        <v>343</v>
+        <v>450</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+        <v>451</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H17" s="13">
         <v>8.6273004E7</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>345</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="7" t="s">
-        <v>346</v>
+        <v>453</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>347</v>
+        <v>454</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H18" s="13">
         <v>7.3632009E7</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>348</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="7" t="s">
-        <v>349</v>
+        <v>456</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+        <v>457</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H19" s="13">
         <v>4.6973005E7</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>351</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="7" t="s">
-        <v>352</v>
+        <v>459</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+        <v>460</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H20" s="13">
         <v>1.18442004E8</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>354</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="7" t="s">
-        <v>355</v>
+        <v>462</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+        <v>463</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H21" s="13">
         <v>6.0941001E7</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>357</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="7" t="s">
-        <v>358</v>
+        <v>465</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+        <v>466</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
       <c r="F22" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H22" s="13">
         <v>4.43263006E8</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>360</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="15" t="s">
-        <v>361</v>
+        <v>468</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>362</v>
+        <v>469</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="33" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="H23" s="17">
         <v>5.0465008E7</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>363</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
